--- a/COMET-Farm_API_File_Specification-Updated_12_June_2020.xlsx
+++ b/COMET-Farm_API_File_Specification-Updated_12_June_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marke\Documents\CFARM\API\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A90A068-1D35-4F0E-B799-764A75B5C040}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67B98A9-92DF-4264-9297-7FF17C06AB1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-4125" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-4125" windowWidth="38640" windowHeight="21390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -7278,18 +7278,9 @@
     <t>Bone Meal</t>
   </si>
   <si>
-    <t>Chicken - Broiler Slurry</t>
-  </si>
-  <si>
     <t>Chicken - Broiler (litter), Solid</t>
   </si>
   <si>
-    <t>Chicken - Layer Slurry</t>
-  </si>
-  <si>
-    <t>Chicken - Layer Solid</t>
-  </si>
-  <si>
     <t>Compost or Composted Manure, Solid</t>
   </si>
   <si>
@@ -7393,6 +7384,15 @@
   </si>
   <si>
     <t>&lt;LimingRate&gt;&lt;/LimingRate&gt;</t>
+  </si>
+  <si>
+    <t>Chicken - Broiler, Slurry</t>
+  </si>
+  <si>
+    <t>Chicken - Layer, Slurry</t>
+  </si>
+  <si>
+    <t>Chicken - Layer, Solid</t>
   </si>
 </sst>
 </file>
@@ -7919,7 +7919,7 @@
         <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,7 +7930,7 @@
         <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
   </sheetData>
@@ -62092,8 +62092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62114,7 +62114,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -62716,7 +62716,7 @@
         <v>132</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -62834,7 +62834,7 @@
         <v>225</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -62845,7 +62845,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="5" t="s">
@@ -62983,7 +62983,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -62996,7 +62996,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="4"/>
@@ -63010,7 +63010,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="3" t="s">
@@ -63024,7 +63024,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="4"/>
@@ -63037,7 +63037,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -63049,7 +63049,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -63062,7 +63062,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="3" t="s">
@@ -63075,7 +63075,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -64314,8 +64314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73A6B14-1D02-4A52-B067-AFA81A420211}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64350,92 +64350,92 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2414</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2416</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2417</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
     </row>
   </sheetData>
@@ -69820,10 +69820,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -70058,10 +70058,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="B48" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -70106,7 +70106,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -70121,7 +70121,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -70216,10 +70216,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="B79" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
